--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H2">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J2">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N2">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O2">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P2">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q2">
-        <v>5.237385303837777</v>
+        <v>31.38739486655811</v>
       </c>
       <c r="R2">
-        <v>47.13646773453999</v>
+        <v>282.486553799023</v>
       </c>
       <c r="S2">
-        <v>0.00709374831294033</v>
+        <v>0.04979575728518382</v>
       </c>
       <c r="T2">
-        <v>0.007093748312940332</v>
+        <v>0.04979575728518382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H3">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J3">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.463534</v>
       </c>
       <c r="O3">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P3">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q3">
-        <v>1.771618964914444</v>
+        <v>7.108511081430889</v>
       </c>
       <c r="R3">
-        <v>15.94457068423</v>
+        <v>63.976599732878</v>
       </c>
       <c r="S3">
-        <v>0.002399559763977258</v>
+        <v>0.0112775747708554</v>
       </c>
       <c r="T3">
-        <v>0.002399559763977258</v>
+        <v>0.0112775747708554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H4">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J4">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N4">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O4">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P4">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q4">
-        <v>2.648557625344444</v>
+        <v>2.817984359894667</v>
       </c>
       <c r="R4">
-        <v>23.83701862809999</v>
+        <v>25.361859239052</v>
       </c>
       <c r="S4">
-        <v>0.003587324608854927</v>
+        <v>0.004470701242181383</v>
       </c>
       <c r="T4">
-        <v>0.003587324608854928</v>
+        <v>0.004470701242181383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H5">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J5">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N5">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O5">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P5">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q5">
-        <v>4.404846617337221</v>
+        <v>8.010282638903222</v>
       </c>
       <c r="R5">
-        <v>39.64361955603499</v>
+        <v>72.09254375012901</v>
       </c>
       <c r="S5">
-        <v>0.005966120773585284</v>
+        <v>0.0127082254442701</v>
       </c>
       <c r="T5">
-        <v>0.005966120773585284</v>
+        <v>0.0127082254442701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H6">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J6">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N6">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O6">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P6">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q6">
-        <v>6.941680042121665</v>
+        <v>18.42820317009155</v>
       </c>
       <c r="R6">
-        <v>62.475120379095</v>
+        <v>165.853828530824</v>
       </c>
       <c r="S6">
-        <v>0.009402121140808349</v>
+        <v>0.02923614196594716</v>
       </c>
       <c r="T6">
-        <v>0.009402121140808352</v>
+        <v>0.02923614196594716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.46594833333333</v>
+        <v>46.00640566666667</v>
       </c>
       <c r="H7">
-        <v>34.397845</v>
+        <v>138.019217</v>
       </c>
       <c r="I7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="J7">
-        <v>0.0374233929424224</v>
+        <v>0.1268639696980132</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N7">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O7">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P7">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q7">
-        <v>6.625976620711666</v>
+        <v>12.21286044827333</v>
       </c>
       <c r="R7">
-        <v>59.633789586405</v>
+        <v>109.91574403446</v>
       </c>
       <c r="S7">
-        <v>0.00897451834225625</v>
+        <v>0.01937556898957536</v>
       </c>
       <c r="T7">
-        <v>0.008974518342256252</v>
+        <v>0.01937556898957535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>341.735291</v>
       </c>
       <c r="I8">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J8">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N8">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O8">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P8">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q8">
-        <v>52.03231164295689</v>
+        <v>77.71512367335878</v>
       </c>
       <c r="R8">
-        <v>468.290804786612</v>
+        <v>699.4361130602289</v>
       </c>
       <c r="S8">
-        <v>0.0704748842261317</v>
+        <v>0.1232941903040767</v>
       </c>
       <c r="T8">
-        <v>0.07047488422613171</v>
+        <v>0.1232941903040767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>341.735291</v>
       </c>
       <c r="I9">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J9">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.463534</v>
       </c>
       <c r="O9">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P9">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q9">
         <v>17.60065848648822</v>
@@ -1013,10 +1013,10 @@
         <v>158.405926378394</v>
       </c>
       <c r="S9">
-        <v>0.02383911707883618</v>
+        <v>0.02792325141282702</v>
       </c>
       <c r="T9">
-        <v>0.02383911707883618</v>
+        <v>0.02792325141282701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>341.735291</v>
       </c>
       <c r="I10">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J10">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N10">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O10">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P10">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q10">
-        <v>26.31285799524222</v>
+        <v>6.977323348110667</v>
       </c>
       <c r="R10">
-        <v>236.81572195718</v>
+        <v>62.79591013299599</v>
       </c>
       <c r="S10">
-        <v>0.03563930877409616</v>
+        <v>0.01106944687253889</v>
       </c>
       <c r="T10">
-        <v>0.03563930877409617</v>
+        <v>0.01106944687253889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>341.735291</v>
       </c>
       <c r="I11">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J11">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N11">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O11">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P11">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q11">
-        <v>43.76121645370811</v>
+        <v>19.83344296611855</v>
       </c>
       <c r="R11">
-        <v>393.8509480833729</v>
+        <v>178.500986695067</v>
       </c>
       <c r="S11">
-        <v>0.05927214390036098</v>
+        <v>0.03146553947115385</v>
       </c>
       <c r="T11">
-        <v>0.05927214390036098</v>
+        <v>0.03146553947115384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>341.735291</v>
       </c>
       <c r="I12">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J12">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N12">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O12">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P12">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q12">
-        <v>68.96411822378234</v>
+        <v>45.62819228961688</v>
       </c>
       <c r="R12">
-        <v>620.6770640140411</v>
+        <v>410.6537306065519</v>
       </c>
       <c r="S12">
-        <v>0.09340807844419886</v>
+        <v>0.07238862601611676</v>
       </c>
       <c r="T12">
-        <v>0.09340807844419891</v>
+        <v>0.07238862601611674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>341.735291</v>
       </c>
       <c r="I13">
-        <v>0.3717934677996853</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="J13">
-        <v>0.3717934677996854</v>
+        <v>0.3141149221428037</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N13">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O13">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P13">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q13">
-        <v>65.82767172298433</v>
+        <v>30.23901678295333</v>
       </c>
       <c r="R13">
-        <v>592.4490455068591</v>
+        <v>272.1511510465799</v>
       </c>
       <c r="S13">
-        <v>0.08915993537606143</v>
+        <v>0.04797386806609047</v>
       </c>
       <c r="T13">
-        <v>0.08915993537606146</v>
+        <v>0.04797386806609046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H14">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J14">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N14">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O14">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P14">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q14">
-        <v>28.205891620328</v>
+        <v>42.162663146437</v>
       </c>
       <c r="R14">
-        <v>253.8530245829519</v>
+        <v>379.463968317933</v>
       </c>
       <c r="S14">
-        <v>0.03820331797052696</v>
+        <v>0.06689060208605875</v>
       </c>
       <c r="T14">
-        <v>0.03820331797052696</v>
+        <v>0.06689060208605874</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H15">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J15">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.463534</v>
       </c>
       <c r="O15">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P15">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q15">
-        <v>9.541038059636</v>
+        <v>9.548857414681999</v>
       </c>
       <c r="R15">
-        <v>85.86934253672399</v>
+        <v>85.939716732138</v>
       </c>
       <c r="S15">
-        <v>0.01292280760585774</v>
+        <v>0.01514915743067766</v>
       </c>
       <c r="T15">
-        <v>0.01292280760585774</v>
+        <v>0.01514915743067766</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H16">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J16">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N16">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O16">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P16">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q16">
-        <v>14.26378335692</v>
+        <v>3.785396201988</v>
       </c>
       <c r="R16">
-        <v>128.37405021228</v>
+        <v>34.068565817892</v>
       </c>
       <c r="S16">
-        <v>0.01931950453409522</v>
+        <v>0.006005489506339567</v>
       </c>
       <c r="T16">
-        <v>0.01931950453409522</v>
+        <v>0.006005489506339567</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H17">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J17">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N17">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O17">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P17">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q17">
-        <v>23.722261984762</v>
+        <v>10.760206447451</v>
       </c>
       <c r="R17">
-        <v>213.500357862858</v>
+        <v>96.841858027059</v>
       </c>
       <c r="S17">
-        <v>0.03213048996227647</v>
+        <v>0.01707094936912476</v>
       </c>
       <c r="T17">
-        <v>0.03213048996227646</v>
+        <v>0.01707094936912476</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H18">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J18">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N18">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O18">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P18">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q18">
-        <v>37.384355660754</v>
+        <v>24.75459100565599</v>
       </c>
       <c r="R18">
-        <v>336.459200946786</v>
+        <v>222.791319050904</v>
       </c>
       <c r="S18">
-        <v>0.05063503914911682</v>
+        <v>0.03927288679587104</v>
       </c>
       <c r="T18">
-        <v>0.05063503914911684</v>
+        <v>0.03927288679587104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.749762</v>
+        <v>61.800369</v>
       </c>
       <c r="H19">
-        <v>185.249286</v>
+        <v>185.401107</v>
       </c>
       <c r="I19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="J19">
-        <v>0.2015433473312409</v>
+        <v>0.1704162719632449</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N19">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O19">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P19">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q19">
-        <v>35.684137713846</v>
+        <v>16.40552595474</v>
       </c>
       <c r="R19">
-        <v>321.157239424614</v>
+        <v>147.64973359266</v>
       </c>
       <c r="S19">
-        <v>0.04833218810936773</v>
+        <v>0.02602718677517307</v>
       </c>
       <c r="T19">
-        <v>0.04833218810936774</v>
+        <v>0.02602718677517307</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H20">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J20">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N20">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O20">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P20">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q20">
-        <v>7.176336871756</v>
+        <v>7.36848608390789</v>
       </c>
       <c r="R20">
-        <v>64.58703184580399</v>
+        <v>66.31637475517101</v>
       </c>
       <c r="S20">
-        <v>0.009719950819697686</v>
+        <v>0.01169002225745305</v>
       </c>
       <c r="T20">
-        <v>0.009719950819697686</v>
+        <v>0.01169002225745305</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H21">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J21">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.463534</v>
       </c>
       <c r="O21">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P21">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q21">
-        <v>2.427496501222</v>
+        <v>1.668789818445112</v>
       </c>
       <c r="R21">
-        <v>21.847468510998</v>
+        <v>15.019108366006</v>
       </c>
       <c r="S21">
-        <v>0.003287909560061173</v>
+        <v>0.002647516721682968</v>
       </c>
       <c r="T21">
-        <v>0.003287909560061173</v>
+        <v>0.002647516721682967</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H22">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J22">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N22">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O22">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P22">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q22">
-        <v>3.629089830339999</v>
+        <v>0.6615483262893335</v>
       </c>
       <c r="R22">
-        <v>32.66180847305999</v>
+        <v>5.953934936604001</v>
       </c>
       <c r="S22">
-        <v>0.004915401172149596</v>
+        <v>0.001049539155077244</v>
       </c>
       <c r="T22">
-        <v>0.004915401172149596</v>
+        <v>0.001049539155077244</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H23">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J23">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N23">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O23">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P23">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q23">
-        <v>6.035580993298999</v>
+        <v>1.880489171014778</v>
       </c>
       <c r="R23">
-        <v>54.32022893969099</v>
+        <v>16.92440253913301</v>
       </c>
       <c r="S23">
-        <v>0.008174860164948379</v>
+        <v>0.002983375419826197</v>
       </c>
       <c r="T23">
-        <v>0.008174860164948377</v>
+        <v>0.002983375419826197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H24">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J24">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N24">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O24">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P24">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q24">
-        <v>9.511584798183</v>
+        <v>4.326193976516445</v>
       </c>
       <c r="R24">
-        <v>85.60426318364699</v>
+        <v>38.935745788648</v>
       </c>
       <c r="S24">
-        <v>0.01288291479453646</v>
+        <v>0.00686345923703162</v>
       </c>
       <c r="T24">
-        <v>0.01288291479453646</v>
+        <v>0.006863459237031619</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.710799</v>
+        <v>10.80043633333334</v>
       </c>
       <c r="H25">
-        <v>47.132397</v>
+        <v>32.401309</v>
       </c>
       <c r="I25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189204</v>
       </c>
       <c r="J25">
-        <v>0.05127804411146253</v>
+        <v>0.02978250980189203</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N25">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O25">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P25">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q25">
-        <v>9.079003658517001</v>
+        <v>2.867083829046667</v>
       </c>
       <c r="R25">
-        <v>81.711032926653</v>
+        <v>25.80375446142</v>
       </c>
       <c r="S25">
-        <v>0.01229700760006923</v>
+        <v>0.004548597010820958</v>
       </c>
       <c r="T25">
-        <v>0.01229700760006924</v>
+        <v>0.004548597010820956</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H26">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J26">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N26">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O26">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P26">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q26">
-        <v>18.35556303395911</v>
+        <v>25.98828750214433</v>
       </c>
       <c r="R26">
-        <v>165.200067305632</v>
+        <v>233.894587519299</v>
       </c>
       <c r="S26">
-        <v>0.02486159347676866</v>
+        <v>0.04123013274010737</v>
       </c>
       <c r="T26">
-        <v>0.02486159347676867</v>
+        <v>0.04123013274010735</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H27">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J27">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.463534</v>
       </c>
       <c r="O27">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P27">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q27">
-        <v>6.209026393153778</v>
+        <v>5.885739497712667</v>
       </c>
       <c r="R27">
-        <v>55.881237538384</v>
+        <v>52.971655479414</v>
       </c>
       <c r="S27">
-        <v>0.008409782352495954</v>
+        <v>0.009337661080760441</v>
       </c>
       <c r="T27">
-        <v>0.008409782352495955</v>
+        <v>0.009337661080760439</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H28">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J28">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N28">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O28">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P28">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q28">
-        <v>9.282449852497777</v>
+        <v>2.333248363964</v>
       </c>
       <c r="R28">
-        <v>83.54204867247999</v>
+        <v>20.999235275676</v>
       </c>
       <c r="S28">
-        <v>0.01257256420161767</v>
+        <v>0.003701672907610263</v>
       </c>
       <c r="T28">
-        <v>0.01257256420161767</v>
+        <v>0.003701672907610262</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H29">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J29">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N29">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O29">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P29">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q29">
-        <v>15.43774900048089</v>
+        <v>6.632392687519667</v>
       </c>
       <c r="R29">
-        <v>138.939741004328</v>
+        <v>59.69153418767701</v>
       </c>
       <c r="S29">
-        <v>0.02090957597630086</v>
+        <v>0.0105222181672567</v>
       </c>
       <c r="T29">
-        <v>0.02090957597630086</v>
+        <v>0.0105222181672567</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H30">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J30">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N30">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O30">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P30">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q30">
-        <v>24.32863694053066</v>
+        <v>15.25827307963466</v>
       </c>
       <c r="R30">
-        <v>218.957732464776</v>
+        <v>137.324457716712</v>
       </c>
       <c r="S30">
-        <v>0.03295179125480143</v>
+        <v>0.02420708268700798</v>
       </c>
       <c r="T30">
-        <v>0.03295179125480144</v>
+        <v>0.02420708268700798</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.18492533333333</v>
+        <v>38.092607</v>
       </c>
       <c r="H31">
-        <v>120.554776</v>
+        <v>114.277821</v>
       </c>
       <c r="I31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="J31">
-        <v>0.1311584709255395</v>
+        <v>0.1050414452104809</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N31">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O31">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P31">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q31">
-        <v>23.22218520640267</v>
+        <v>10.11206345422</v>
       </c>
       <c r="R31">
-        <v>208.999666857624</v>
+        <v>91.00857108797999</v>
       </c>
       <c r="S31">
-        <v>0.0314531636635549</v>
+        <v>0.0160426776277382</v>
       </c>
       <c r="T31">
-        <v>0.03145316366355491</v>
+        <v>0.01604267762773819</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H32">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J32">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4567773333333333</v>
+        <v>0.6822396666666667</v>
       </c>
       <c r="N32">
-        <v>1.370332</v>
+        <v>2.046719</v>
       </c>
       <c r="O32">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830775</v>
       </c>
       <c r="P32">
-        <v>0.1895538526892628</v>
+        <v>0.3925129995830774</v>
       </c>
       <c r="Q32">
-        <v>28.942016156412</v>
+        <v>62.78788805247655</v>
       </c>
       <c r="R32">
-        <v>260.478145407708</v>
+        <v>565.0909924722889</v>
       </c>
       <c r="S32">
-        <v>0.0392003578831974</v>
+        <v>0.09961229491019782</v>
       </c>
       <c r="T32">
-        <v>0.0392003578831974</v>
+        <v>0.0996122949101978</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H33">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J33">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.463534</v>
       </c>
       <c r="O33">
-        <v>0.06411924668800315</v>
+        <v>0.0888950172196292</v>
       </c>
       <c r="P33">
-        <v>0.06411924668800315</v>
+        <v>0.08889501721962918</v>
       </c>
       <c r="Q33">
-        <v>9.790042498494</v>
+        <v>14.21998862595044</v>
       </c>
       <c r="R33">
-        <v>88.110382486446</v>
+        <v>127.979897633554</v>
       </c>
       <c r="S33">
-        <v>0.01326007032677484</v>
+        <v>0.02255985580282571</v>
       </c>
       <c r="T33">
-        <v>0.01326007032677484</v>
+        <v>0.02255985580282571</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H34">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J34">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.2309933333333333</v>
+        <v>0.061252</v>
       </c>
       <c r="N34">
-        <v>0.6929799999999999</v>
+        <v>0.183756</v>
       </c>
       <c r="O34">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="P34">
-        <v>0.09585781316980505</v>
+        <v>0.03524011784294179</v>
       </c>
       <c r="Q34">
-        <v>14.63604320418</v>
+        <v>5.637144696937334</v>
       </c>
       <c r="R34">
-        <v>131.72438883762</v>
+        <v>50.734302272436</v>
       </c>
       <c r="S34">
-        <v>0.01982370987899146</v>
+        <v>0.008943268159194452</v>
       </c>
       <c r="T34">
-        <v>0.01982370987899146</v>
+        <v>0.00894326815919445</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H35">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J35">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3841676666666666</v>
+        <v>0.1741123333333333</v>
       </c>
       <c r="N35">
-        <v>1.152503</v>
+        <v>0.5223370000000001</v>
       </c>
       <c r="O35">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="P35">
-        <v>0.1594222304419173</v>
+        <v>0.1001720620481981</v>
       </c>
       <c r="Q35">
-        <v>24.341371613823</v>
+        <v>16.02390806049411</v>
       </c>
       <c r="R35">
-        <v>219.072344524407</v>
+        <v>144.215172544447</v>
       </c>
       <c r="S35">
-        <v>0.0329690396644453</v>
+        <v>0.0254217541765665</v>
       </c>
       <c r="T35">
-        <v>0.03296903966444529</v>
+        <v>0.02542175417656649</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H36">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J36">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.605417</v>
+        <v>0.4005573333333333</v>
       </c>
       <c r="N36">
-        <v>1.816251</v>
+        <v>1.201672</v>
       </c>
       <c r="O36">
-        <v>0.2512364700676377</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="P36">
-        <v>0.2512364700676378</v>
+        <v>0.2304526812107553</v>
       </c>
       <c r="Q36">
-        <v>38.360022086691</v>
+        <v>36.86409664042577</v>
       </c>
       <c r="R36">
-        <v>345.240198780219</v>
+        <v>331.7768697638319</v>
       </c>
       <c r="S36">
-        <v>0.05195652528417578</v>
+        <v>0.05848448450878074</v>
       </c>
       <c r="T36">
-        <v>0.05195652528417578</v>
+        <v>0.05848448450878073</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.361323</v>
+        <v>92.03201033333333</v>
       </c>
       <c r="H37">
-        <v>190.083969</v>
+        <v>276.096031</v>
       </c>
       <c r="I37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="J37">
-        <v>0.2068032768896493</v>
+        <v>0.2537808811835653</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.577883</v>
+        <v>0.26546</v>
       </c>
       <c r="N37">
-        <v>1.733649</v>
+        <v>0.7963799999999999</v>
       </c>
       <c r="O37">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953982</v>
       </c>
       <c r="P37">
-        <v>0.2398103869433741</v>
+        <v>0.1527271220953981</v>
       </c>
       <c r="Q37">
-        <v>36.615431419209</v>
+        <v>24.43081746308667</v>
       </c>
       <c r="R37">
-        <v>329.538882772881</v>
+        <v>219.87735716778</v>
       </c>
       <c r="S37">
-        <v>0.04959357385206453</v>
+        <v>0.03875922362600012</v>
       </c>
       <c r="T37">
-        <v>0.04959357385206454</v>
+        <v>0.0387592236260001</v>
       </c>
     </row>
   </sheetData>
